--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H2">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I2">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J2">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>909.9672250193441</v>
+        <v>1558.532353465621</v>
       </c>
       <c r="R2">
-        <v>909.9672250193441</v>
+        <v>14026.79118119059</v>
       </c>
       <c r="S2">
-        <v>0.3534866556646255</v>
+        <v>0.3851044791163941</v>
       </c>
       <c r="T2">
-        <v>0.3534866556646255</v>
+        <v>0.4093170434735222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H3">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I3">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J3">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>321.2521978580103</v>
+        <v>527.3524727287889</v>
       </c>
       <c r="R3">
-        <v>321.2521978580103</v>
+        <v>4746.1722545591</v>
       </c>
       <c r="S3">
-        <v>0.1247939067732078</v>
+        <v>0.1303057962636272</v>
       </c>
       <c r="T3">
-        <v>0.1247939067732078</v>
+        <v>0.1384984755214198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H4">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I4">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J4">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>299.8070341115276</v>
+        <v>480.6529087983088</v>
       </c>
       <c r="R4">
-        <v>299.8070341115276</v>
+        <v>4325.87617918478</v>
       </c>
       <c r="S4">
-        <v>0.1164632999068305</v>
+        <v>0.1187665996582954</v>
       </c>
       <c r="T4">
-        <v>0.1164632999068305</v>
+        <v>0.1262337782907065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H5">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I5">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J5">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>403.3794953750572</v>
+        <v>621.0148661064799</v>
       </c>
       <c r="R5">
-        <v>403.3794953750572</v>
+        <v>5589.13379495832</v>
       </c>
       <c r="S5">
-        <v>0.1566971478349476</v>
+        <v>0.1534492408859375</v>
       </c>
       <c r="T5">
-        <v>0.1566971478349476</v>
+        <v>0.163097011353391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H6">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I6">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J6">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>218.0771396773469</v>
+        <v>342.2123577356041</v>
       </c>
       <c r="R6">
-        <v>218.0771396773469</v>
+        <v>2053.274146413625</v>
       </c>
       <c r="S6">
-        <v>0.08471443439055076</v>
+        <v>0.08455872698434168</v>
       </c>
       <c r="T6">
-        <v>0.08471443439055076</v>
+        <v>0.05991677584661304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H7">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J7">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>56.68528274032384</v>
+        <v>75.0229212110669</v>
       </c>
       <c r="R7">
-        <v>56.68528274032384</v>
+        <v>675.2062908996021</v>
       </c>
       <c r="S7">
-        <v>0.02202001398550902</v>
+        <v>0.01853773707715044</v>
       </c>
       <c r="T7">
-        <v>0.02202001398550902</v>
+        <v>0.0197032549466021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H8">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J8">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>20.01200830738124</v>
+        <v>25.38511499233111</v>
       </c>
       <c r="R8">
-        <v>20.01200830738124</v>
+        <v>228.46603493098</v>
       </c>
       <c r="S8">
-        <v>0.007773882064333163</v>
+        <v>0.006272517516042108</v>
       </c>
       <c r="T8">
-        <v>0.007773882064333163</v>
+        <v>0.006666887725359983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H9">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J9">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>18.67610835740659</v>
+        <v>23.13714259858711</v>
       </c>
       <c r="R9">
-        <v>18.67610835740659</v>
+        <v>208.234283387284</v>
       </c>
       <c r="S9">
-        <v>0.007254937213754572</v>
+        <v>0.005717056324725932</v>
       </c>
       <c r="T9">
-        <v>0.007254937213754572</v>
+        <v>0.006076503180585315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H10">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J10">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>25.12802672260882</v>
+        <v>29.893732566544</v>
       </c>
       <c r="R10">
-        <v>25.12802672260882</v>
+        <v>269.043593098896</v>
       </c>
       <c r="S10">
-        <v>0.009761255005022305</v>
+        <v>0.007386571272187358</v>
       </c>
       <c r="T10">
-        <v>0.009761255005022305</v>
+        <v>0.007850985066378248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H11">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J11">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>13.58484567567663</v>
+        <v>16.47304317729584</v>
       </c>
       <c r="R11">
-        <v>13.58484567567663</v>
+        <v>98.83825906377501</v>
       </c>
       <c r="S11">
-        <v>0.005277180906722109</v>
+        <v>0.004070395265230095</v>
       </c>
       <c r="T11">
-        <v>0.005277180906722109</v>
+        <v>0.002884208045836221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H12">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I12">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J12">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>121.6226818937653</v>
+        <v>0.9317660399422222</v>
       </c>
       <c r="R12">
-        <v>121.6226818937653</v>
+        <v>8.38589435948</v>
       </c>
       <c r="S12">
-        <v>0.04724565225376746</v>
+        <v>0.0002302340882897879</v>
       </c>
       <c r="T12">
-        <v>0.04724565225376746</v>
+        <v>0.0002447095306235457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H13">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I13">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J13">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>42.93731993141527</v>
+        <v>0.3152768205777778</v>
       </c>
       <c r="R13">
-        <v>42.93731993141527</v>
+        <v>2.8374913852</v>
       </c>
       <c r="S13">
-        <v>0.0166794684560594</v>
+        <v>7.790310897049733E-05</v>
       </c>
       <c r="T13">
-        <v>0.0166794684560594</v>
+        <v>8.280108897814725E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H14">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I14">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J14">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>40.07104271088932</v>
+        <v>0.2873575620177777</v>
       </c>
       <c r="R14">
-        <v>40.07104271088932</v>
+        <v>2.58621805816</v>
       </c>
       <c r="S14">
-        <v>0.01556603192666145</v>
+        <v>7.100441899389434E-05</v>
       </c>
       <c r="T14">
-        <v>0.01556603192666145</v>
+        <v>7.546865962925331E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H15">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I15">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J15">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>53.91413525627281</v>
+        <v>0.3712727305599999</v>
       </c>
       <c r="R15">
-        <v>53.91413525627281</v>
+        <v>3.341454575039999</v>
       </c>
       <c r="S15">
-        <v>0.02094353163586196</v>
+        <v>9.173937980465799E-05</v>
       </c>
       <c r="T15">
-        <v>0.02094353163586196</v>
+        <v>9.750728373218399E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02111333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.06333999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0005214342938518265</v>
+      </c>
+      <c r="J16">
+        <v>0.000536307710231945</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N16">
+        <v>19.380275</v>
+      </c>
+      <c r="O16">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P16">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q16">
+        <v>0.2045911030833333</v>
+      </c>
+      <c r="R16">
+        <v>1.2275466185</v>
+      </c>
+      <c r="S16">
+        <v>5.055329779298902E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.582114726881472E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.256365</v>
+      </c>
+      <c r="I17">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J17">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N17">
+        <v>132.394922</v>
+      </c>
+      <c r="O17">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P17">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q17">
+        <v>3.77126935317</v>
+      </c>
+      <c r="R17">
+        <v>33.94142417853</v>
+      </c>
+      <c r="S17">
+        <v>0.0009318592049954447</v>
+      </c>
+      <c r="T17">
+        <v>0.0009904477236865375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.256365</v>
+      </c>
+      <c r="I18">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J18">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N18">
+        <v>44.79778</v>
+      </c>
+      <c r="O18">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P18">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q18">
+        <v>1.2760647633</v>
+      </c>
+      <c r="R18">
+        <v>11.4845828697</v>
+      </c>
+      <c r="S18">
+        <v>0.0003153083443514611</v>
+      </c>
+      <c r="T18">
+        <v>0.000335132636183813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.256365</v>
+      </c>
+      <c r="I19">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J19">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N19">
+        <v>40.830724</v>
+      </c>
+      <c r="O19">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P19">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q19">
+        <v>1.16306317314</v>
+      </c>
+      <c r="R19">
+        <v>10.46756855826</v>
+      </c>
+      <c r="S19">
+        <v>0.0002873862942117102</v>
+      </c>
+      <c r="T19">
+        <v>0.0003054550509291684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.256365</v>
+      </c>
+      <c r="I20">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J20">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.584752</v>
+      </c>
+      <c r="N20">
+        <v>52.754256</v>
+      </c>
+      <c r="O20">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P20">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q20">
+        <v>1.50270498216</v>
+      </c>
+      <c r="R20">
+        <v>13.52434483944</v>
+      </c>
+      <c r="S20">
+        <v>0.0003713098532305202</v>
+      </c>
+      <c r="T20">
+        <v>0.0003946551119987582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.256365</v>
+      </c>
+      <c r="I21">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J21">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N21">
+        <v>19.380275</v>
+      </c>
+      <c r="O21">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P21">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q21">
+        <v>0.8280707000624999</v>
+      </c>
+      <c r="R21">
+        <v>4.968424200374999</v>
+      </c>
+      <c r="S21">
+        <v>0.0002046115596573986</v>
+      </c>
+      <c r="T21">
+        <v>0.0001449840293585362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.3687995</v>
+      </c>
+      <c r="H22">
+        <v>6.737599</v>
+      </c>
+      <c r="I22">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J22">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N22">
+        <v>132.394922</v>
+      </c>
+      <c r="O22">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P22">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q22">
+        <v>148.6706490120463</v>
+      </c>
+      <c r="R22">
+        <v>892.0238940722782</v>
+      </c>
+      <c r="S22">
+        <v>0.03673567168520335</v>
+      </c>
+      <c r="T22">
+        <v>0.02603022874675831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.3687995</v>
+      </c>
+      <c r="H23">
+        <v>6.737599</v>
+      </c>
+      <c r="I23">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J23">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N23">
+        <v>44.79778</v>
+      </c>
+      <c r="O23">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P23">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q23">
+        <v>50.30491295503668</v>
+      </c>
+      <c r="R23">
+        <v>301.82947773022</v>
+      </c>
+      <c r="S23">
+        <v>0.01243005784093418</v>
+      </c>
+      <c r="T23">
+        <v>0.008807712887560404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="H16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="I16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="J16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="N16">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="O16">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="P16">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="Q16">
-        <v>29.1473427372248</v>
-      </c>
-      <c r="R16">
-        <v>29.1473427372248</v>
-      </c>
-      <c r="S16">
-        <v>0.01132260198214632</v>
-      </c>
-      <c r="T16">
-        <v>0.01132260198214632</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.3687995</v>
+      </c>
+      <c r="H24">
+        <v>6.737599</v>
+      </c>
+      <c r="I24">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J24">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N24">
+        <v>40.830724</v>
+      </c>
+      <c r="O24">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P24">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q24">
+        <v>45.85017419861267</v>
+      </c>
+      <c r="R24">
+        <v>275.101045191676</v>
+      </c>
+      <c r="S24">
+        <v>0.0113293172341848</v>
+      </c>
+      <c r="T24">
+        <v>0.00802774811571515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.3687995</v>
+      </c>
+      <c r="H25">
+        <v>6.737599</v>
+      </c>
+      <c r="I25">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J25">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.584752</v>
+      </c>
+      <c r="N25">
+        <v>52.754256</v>
+      </c>
+      <c r="O25">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P25">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q25">
+        <v>59.239503745224</v>
+      </c>
+      <c r="R25">
+        <v>355.437022471344</v>
+      </c>
+      <c r="S25">
+        <v>0.01463774440241121</v>
+      </c>
+      <c r="T25">
+        <v>0.01037203942795515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.3687995</v>
+      </c>
+      <c r="H26">
+        <v>6.737599</v>
+      </c>
+      <c r="I26">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J26">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N26">
+        <v>19.380275</v>
+      </c>
+      <c r="O26">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P26">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q26">
+        <v>32.64413036493125</v>
+      </c>
+      <c r="R26">
+        <v>130.576521459725</v>
+      </c>
+      <c r="S26">
+        <v>0.008066178923036274</v>
+      </c>
+      <c r="T26">
+        <v>0.003810365109207749</v>
       </c>
     </row>
   </sheetData>
